--- a/src/data/example.xlsx
+++ b/src/data/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_nagai/hpdb_src/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_nagai/hpdb_dev/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DAA19-EFD1-124D-B080-5E7F35C7B50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8FF68-7515-B145-91BF-386A390225AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>sh:property</t>
     <phoneticPr fontId="1"/>
@@ -290,29 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1(A26)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>識別子</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">シキベツシ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://schema.org/image</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,6 +386,123 @@
     <rPh sb="3" eb="4">
       <t xml:space="preserve">タンゴ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/itemNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/classes/ItemNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/term/ItemNo/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/itemType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Numeral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数詞</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジュンジョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sub Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/subType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://w3id.org/hpdb/api/properties/numeral</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +594,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942F2BF-5A86-C44B-A72F-EA0DBDC0FF33}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -793,297 +893,447 @@
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="54" customWidth="1"/>
+    <col min="8" max="8" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8" ht="19">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="38">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="133">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1093,30 +1343,43 @@
     <hyperlink ref="B3" r:id="rId2" location="label" xr:uid="{25B0F13F-CBCC-644E-A56A-3F9ADF42F2B7}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{95BA338A-0DE6-AF4A-92BC-B2D9B8F0DF78}"/>
     <hyperlink ref="G3" r:id="rId4" location="string" xr:uid="{22391279-2353-C644-9E1B-1879E06F3554}"/>
-    <hyperlink ref="G10" r:id="rId5" location="Resource" xr:uid="{66D0B318-5D09-5F45-9BAE-83F33157F41E}"/>
-    <hyperlink ref="H10" r:id="rId6" display="http://codh.rois.ac.jp/software/iiif-curation-viewer/demo/?manifest=https://moeller.jinsha.tsukuba.ac.jp/data/manifest/8aaa203c-1c5a-4fef-973b-4fb174d60d37/manifest.json&amp;amp;canvas=https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/8aaa203c-1c5a-4fef-973b-4fb174d60d37/canvas/p23&amp;amp;xywh=893,2105,3921,501&amp;amp;xywh_highlight=border" xr:uid="{F599F874-F614-4046-BF15-53521FDDD27E}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{9DD899D8-CA0A-8044-8901-F49D5DC51564}"/>
+    <hyperlink ref="G16" r:id="rId5" location="Resource" xr:uid="{66D0B318-5D09-5F45-9BAE-83F33157F41E}"/>
+    <hyperlink ref="H16" r:id="rId6" display="http://codh.rois.ac.jp/software/iiif-curation-viewer/demo/?manifest=https://moeller.jinsha.tsukuba.ac.jp/data/manifest/8aaa203c-1c5a-4fef-973b-4fb174d60d37/manifest.json&amp;amp;canvas=https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/8aaa203c-1c5a-4fef-973b-4fb174d60d37/canvas/p23&amp;amp;xywh=893,2105,3921,501&amp;amp;xywh_highlight=border" xr:uid="{F599F874-F614-4046-BF15-53521FDDD27E}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{9DD899D8-CA0A-8044-8901-F49D5DC51564}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{A82C693D-2598-5B4F-80E3-0398DF4C160E}"/>
-    <hyperlink ref="H4" r:id="rId9" xr:uid="{A8BAE305-1676-B548-8B30-9F2814FC277F}"/>
-    <hyperlink ref="G4" r:id="rId10" xr:uid="{D460EC01-5217-5349-8320-DC48B7EFF9CB}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{1770618E-0C7E-4743-AFDC-BD123714811E}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{0C27D358-6279-CA40-8F9F-0EBCE6BE2B75}"/>
-    <hyperlink ref="G5" r:id="rId13" xr:uid="{D677C79D-3BCD-2C4F-B46A-BAE9D4415966}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{94F902CD-2D2C-E648-89AF-4B2AF8A39BBE}"/>
-    <hyperlink ref="G6" r:id="rId15" location="integer" xr:uid="{E0B91F6A-4DDA-C342-A4BC-680CE905F7DE}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{DA01CA84-F5DB-2242-9F4C-46D6286F7747}"/>
-    <hyperlink ref="G7" r:id="rId17" location="string" xr:uid="{E8894A34-9A8D-8F46-926F-524A0948AC48}"/>
-    <hyperlink ref="B8" r:id="rId18" xr:uid="{644D0947-4DDB-C44F-97BF-E0B253A16191}"/>
-    <hyperlink ref="G8" r:id="rId19" location="string" xr:uid="{851FFDF6-FFCC-8F41-BE92-4443D45DAFE3}"/>
-    <hyperlink ref="B9" r:id="rId20" xr:uid="{D0D149AB-FE49-8B4D-9761-992787E48103}"/>
-    <hyperlink ref="G9" r:id="rId21" location="Resource" xr:uid="{FC56B190-4F94-8E4C-A8A9-F27382713958}"/>
-    <hyperlink ref="H9" r:id="rId22" xr:uid="{9180B6BD-DBE9-9341-91BA-24A288E926ED}"/>
-    <hyperlink ref="B11" r:id="rId23" xr:uid="{0C267C6E-79B9-3E47-85AD-798A59BEB102}"/>
-    <hyperlink ref="G11" r:id="rId24" location="Resource" xr:uid="{55B15001-CFE6-3644-A77B-7F930DBE628F}"/>
-    <hyperlink ref="H11" r:id="rId25" xr:uid="{BAD9A5AE-BFA4-3E4D-B5AC-711D522963A6}"/>
-    <hyperlink ref="B12" r:id="rId26" xr:uid="{1A2E835E-FF35-3E4B-9813-4B692A39B0BF}"/>
-    <hyperlink ref="G12" r:id="rId27" location="Resource" xr:uid="{38339E6A-C340-BE45-909B-A6438D696FF3}"/>
-    <hyperlink ref="H12" r:id="rId28" xr:uid="{C17F3A31-B677-CE4E-8116-B5CF596D39CB}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{D460EC01-5217-5349-8320-DC48B7EFF9CB}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{1770618E-0C7E-4743-AFDC-BD123714811E}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{0C27D358-6279-CA40-8F9F-0EBCE6BE2B75}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{D677C79D-3BCD-2C4F-B46A-BAE9D4415966}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{94F902CD-2D2C-E648-89AF-4B2AF8A39BBE}"/>
+    <hyperlink ref="G7" r:id="rId14" location="integer" xr:uid="{E0B91F6A-4DDA-C342-A4BC-680CE905F7DE}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{DA01CA84-F5DB-2242-9F4C-46D6286F7747}"/>
+    <hyperlink ref="G8" r:id="rId16" location="string" xr:uid="{E8894A34-9A8D-8F46-926F-524A0948AC48}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{D0D149AB-FE49-8B4D-9761-992787E48103}"/>
+    <hyperlink ref="G15" r:id="rId18" location="Resource" xr:uid="{FC56B190-4F94-8E4C-A8A9-F27382713958}"/>
+    <hyperlink ref="H15" r:id="rId19" xr:uid="{9180B6BD-DBE9-9341-91BA-24A288E926ED}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{0C267C6E-79B9-3E47-85AD-798A59BEB102}"/>
+    <hyperlink ref="G17" r:id="rId21" location="Resource" xr:uid="{55B15001-CFE6-3644-A77B-7F930DBE628F}"/>
+    <hyperlink ref="H17" r:id="rId22" xr:uid="{BAD9A5AE-BFA4-3E4D-B5AC-711D522963A6}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{1A2E835E-FF35-3E4B-9813-4B692A39B0BF}"/>
+    <hyperlink ref="G18" r:id="rId24" location="Resource" xr:uid="{38339E6A-C340-BE45-909B-A6438D696FF3}"/>
+    <hyperlink ref="H18" r:id="rId25" xr:uid="{C17F3A31-B677-CE4E-8116-B5CF596D39CB}"/>
+    <hyperlink ref="B6" r:id="rId26" xr:uid="{07B4E173-18A7-4A47-B59E-0DD4F8F1F28F}"/>
+    <hyperlink ref="G6" r:id="rId27" xr:uid="{1E6E82FA-6BA7-2E49-9CEE-C14C82768252}"/>
+    <hyperlink ref="H4" r:id="rId28" xr:uid="{A8BAE305-1676-B548-8B30-9F2814FC277F}"/>
+    <hyperlink ref="H6" r:id="rId29" xr:uid="{AA9D426F-3933-934A-827A-942418AD5544}"/>
+    <hyperlink ref="B9" r:id="rId30" xr:uid="{D8D15C7D-9F2A-2C44-96E6-7EBFB60B63CD}"/>
+    <hyperlink ref="G9" r:id="rId31" location="string" xr:uid="{C8A39A02-926C-CB4D-95B5-BDFF66E37E8A}"/>
+    <hyperlink ref="B11" r:id="rId32" xr:uid="{4706C8B2-C5A9-F647-AC49-9960AE3C4785}"/>
+    <hyperlink ref="G11" r:id="rId33" location="integer" xr:uid="{C873440D-FCF7-B148-A1B4-1BA4D581258E}"/>
+    <hyperlink ref="B12" r:id="rId34" xr:uid="{DEBE9713-8D38-5144-9379-5393AE3FAA01}"/>
+    <hyperlink ref="G12" r:id="rId35" location="integer" xr:uid="{F8B2FC35-6FDD-D649-B13A-BCD90E34AC1D}"/>
+    <hyperlink ref="G13" r:id="rId36" location="integer" xr:uid="{D991B4E2-F91C-CA4C-9F23-9F221A2F9F47}"/>
+    <hyperlink ref="B13" r:id="rId37" xr:uid="{C17C041F-6105-A24D-A35F-9F1945E91947}"/>
+    <hyperlink ref="G10" r:id="rId38" location="string" xr:uid="{0EF48E8A-36B8-3848-8941-88560A11BADF}"/>
+    <hyperlink ref="G14" r:id="rId39" location="string" xr:uid="{213E00BF-2792-BA4A-950C-C51A93FEA362}"/>
+    <hyperlink ref="B10" r:id="rId40" xr:uid="{7EA53BCB-FAC2-6446-832D-DA3775B4CEF3}"/>
+    <hyperlink ref="B14" r:id="rId41" xr:uid="{F7ED93EB-340D-E54D-A15F-0D3FABD458A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1289,7 +1552,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -1301,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B1B2DF-1069-4643-ABE9-8D01DAA58FD8}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1377,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1414,7 +1677,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
